--- a/SNN.xlsx
+++ b/SNN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9000" windowHeight="7605" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9000" windowHeight="7605" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="226">
   <si>
     <t>resnet20</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -736,6 +736,139 @@
   <si>
     <t>resnext110_4_16</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2, 484, se</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>resnext29_8_64</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>resnext56_8_16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>resnext56_256_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>115B</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>resnext56_32_4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>resnext38_8_16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>resnext74_8_16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>resnext92_8_16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>@122</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">resnext_56_4_16_compress_7_198.t7 </t>
+  </si>
+  <si>
+    <t>resnext110_32_4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>resnext56_32_4F64</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>resnext56_64_4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>resnext110_64_4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>resnext56_128_4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>resnext_56_64x4dx4_2_141.t7</t>
+  </si>
+  <si>
+    <t>resnext_56_64x4dx16_2_181.t7</t>
+  </si>
+  <si>
+    <t>resnext_56_64x4d_188.t7</t>
+  </si>
+  <si>
+    <t>resnext_110_64x4d_2_108.t7</t>
+  </si>
+  <si>
+    <t>resnext_110_64x4d_180.t7</t>
+  </si>
+  <si>
+    <t>resnext_56_128x4d_2_182.t7</t>
+  </si>
+  <si>
+    <t>resnext_56_128x4d_178.t7</t>
+  </si>
+  <si>
+    <t>resnext_38_16x8d_167.t7</t>
+  </si>
+  <si>
+    <t>resnext_38_16x8d_2_192.t7</t>
+  </si>
+  <si>
+    <t>resnext_74_16x8d_188.t7</t>
+  </si>
+  <si>
+    <t>resnext_74_16x8d_2_184.t7</t>
+  </si>
+  <si>
+    <t>resnext_92_16x8d_115.t7</t>
+  </si>
+  <si>
+    <t>resnext_38_16x8d_1_113.t7</t>
+  </si>
+  <si>
+    <t>resnext_92_16x8d_2_185.t7</t>
+  </si>
+  <si>
+    <t>resnext_92_16x8d_1_176.t7</t>
+  </si>
+  <si>
+    <t>resnext_29_8_64_re_192.t7</t>
+  </si>
+  <si>
+    <t>resnext56_32x4d_180.t7</t>
+  </si>
+  <si>
+    <t>resnext56_32x4d_2_174.t7</t>
+  </si>
+  <si>
+    <t>resnext56_32x4dF64_199.t7</t>
+  </si>
+  <si>
+    <t>resnext110_32x4d_187.t7</t>
+  </si>
+  <si>
+    <t>resnext56_128x4dC10_180.t7</t>
+  </si>
+  <si>
+    <t>resnext56_128x4dC10_2_143.t7</t>
   </si>
 </sst>
 </file>
@@ -990,7 +1123,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1144,9 +1277,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1163,6 +1293,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2027,6 +2181,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2158,6 +2313,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
+              <c:layout/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -2192,7 +2348,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000F-C48D-4083-A89B-E8C10A517687}"/>
                 </c:ext>
@@ -2383,6 +2541,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2499,6 +2658,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3050,6 +3210,1988 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>interval!$O$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>resnext29_8_16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>interval!$N$30:$N$32</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>orig</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1, 484</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2, 484</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>interval!$O$30:$O$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.79049999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7843</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75660000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BCFC-48EE-8925-AF75194CE965}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>interval!$R$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>resnext110_4_16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>interval!$N$30:$N$32</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>orig</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1, 484</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2, 484</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>interval!$R$30:$R$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.80920000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79620000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BCFC-48EE-8925-AF75194CE965}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>interval!$Q$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>resnext56_4_16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>interval!$N$30:$N$32</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>orig</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1, 484</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2, 484</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>interval!$Q$30:$Q$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.79300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79349999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78310000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BCFC-48EE-8925-AF75194CE965}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>interval!$P$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>resnext29_8_64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>interval!$N$30:$N$32</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>orig</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1, 484</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2, 484</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>interval!$P$30:$P$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.8256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82379999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79959999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BCFC-48EE-8925-AF75194CE965}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>interval!$S$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>resnext56_8_16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>interval!$N$30:$N$32</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>orig</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1, 484</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2, 484</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>interval!$S$30:$S$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.80720000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75190000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-BCFC-48EE-8925-AF75194CE965}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="4412031"/>
+        <c:axId val="80256303"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="4412031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="80256303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="80256303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.75000000000000011"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="4412031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>interval!$O$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>interval!$N$56:$N$58</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>orig</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1, 484</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2, 484</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>interval!$O$56:$O$58</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.79049999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7843</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75660000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-95D9-430B-848A-121B86FBE220}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>interval!$P$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>interval!$N$56:$N$58</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>orig</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1, 484</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2, 484</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>interval!$P$56:$P$58</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.8014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79079999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78200000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-95D9-430B-848A-121B86FBE220}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>interval!$Q$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>interval!$N$56:$N$58</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>orig</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1, 484</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2, 484</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>interval!$Q$56:$Q$58</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.80720000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80769999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80400000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-95D9-430B-848A-121B86FBE220}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>interval!$R$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>interval!$N$56:$N$58</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>orig</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1, 484</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2, 484</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>interval!$R$56:$R$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>0.80779999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00%">
+                  <c:v>0.80779999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-95D9-430B-848A-121B86FBE220}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>interval!$S$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>interval!$N$56:$N$58</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>orig</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1, 484</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2, 484</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>interval!$S$56:$S$58</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.80969999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.81189999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81110000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-95D9-430B-848A-121B86FBE220}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>interval!$T$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>interval!$N$56:$N$58</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>orig</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1, 484</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2, 484</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>interval!$T$56:$T$58</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.81110000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80579999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81940000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-95D9-430B-848A-121B86FBE220}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1870421680"/>
+        <c:axId val="1870418352"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1870421680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1870418352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1870418352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1870421680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3170,6 +5312,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4203,6 +6425,1038 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5094,6 +8348,71 @@
 </c:userShapes>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>104624</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>146962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>76198</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
@@ -5359,8 +8678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X166"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V32" sqref="V32"/>
+    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -5424,10 +8743,10 @@
       </c>
     </row>
     <row r="11" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E11" s="51" t="s">
+      <c r="E11" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="51" t="s">
+      <c r="F11" s="63" t="s">
         <v>0</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -5450,8 +8769,8 @@
       </c>
     </row>
     <row r="12" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
       <c r="G12" s="1" t="s">
         <v>3</v>
       </c>
@@ -5469,8 +8788,8 @@
       </c>
     </row>
     <row r="13" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
       <c r="G13" s="1" t="s">
         <v>4</v>
       </c>
@@ -5488,8 +8807,8 @@
       </c>
     </row>
     <row r="14" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
       <c r="G14" s="1" t="s">
         <v>5</v>
       </c>
@@ -5507,10 +8826,10 @@
       </c>
     </row>
     <row r="15" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E15" s="51" t="s">
+      <c r="E15" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="51" t="s">
+      <c r="F15" s="63" t="s">
         <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -5530,8 +8849,8 @@
       </c>
     </row>
     <row r="16" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
       <c r="G16" s="1" t="s">
         <v>8</v>
       </c>
@@ -5549,8 +8868,8 @@
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E17" s="51"/>
-      <c r="F17" s="51" t="s">
+      <c r="E17" s="63"/>
+      <c r="F17" s="63" t="s">
         <v>9</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -5564,8 +8883,8 @@
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
       <c r="G18" s="1" t="s">
         <v>10</v>
       </c>
@@ -5583,8 +8902,8 @@
       <c r="B19" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
       <c r="G19" s="1" t="s">
         <v>11</v>
       </c>
@@ -5602,8 +8921,8 @@
       <c r="B20" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
       <c r="G20" s="1" t="s">
         <v>12</v>
       </c>
@@ -5621,8 +8940,8 @@
       <c r="B21" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51" t="s">
+      <c r="E21" s="63"/>
+      <c r="F21" s="63" t="s">
         <v>13</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -5642,8 +8961,8 @@
       <c r="B22" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
       <c r="G22" s="1" t="s">
         <v>10</v>
       </c>
@@ -5655,8 +8974,8 @@
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
       <c r="G23" s="1" t="s">
         <v>11</v>
       </c>
@@ -5668,8 +8987,8 @@
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
       <c r="G24" s="1" t="s">
         <v>12</v>
       </c>
@@ -5681,8 +9000,8 @@
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E25" s="51"/>
-      <c r="F25" s="51" t="s">
+      <c r="E25" s="63"/>
+      <c r="F25" s="63" t="s">
         <v>14</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -5708,8 +9027,8 @@
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
       <c r="G26" s="1" t="s">
         <v>24</v>
       </c>
@@ -7514,7 +10833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -7917,28 +11236,29 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:K35"/>
+  <dimension ref="C1:T81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P36" sqref="P36"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="8" max="8" width="9" style="9"/>
+    <col min="8" max="8" width="9.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C2">
         <v>29</v>
       </c>
       <c r="D2" s="9">
         <v>0.71089999999999998</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="51" t="s">
         <v>134</v>
       </c>
       <c r="G2" s="38" t="s">
@@ -7947,11 +11267,11 @@
       <c r="H2" s="39">
         <v>0.79049999999999998</v>
       </c>
-      <c r="I2" s="53">
+      <c r="I2" s="52">
         <v>2187828</v>
       </c>
     </row>
-    <row r="3" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>56</v>
       </c>
@@ -7969,7 +11289,7 @@
         <v>2324532</v>
       </c>
     </row>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>110</v>
       </c>
@@ -7985,7 +11305,7 @@
       </c>
       <c r="I4" s="33"/>
     </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>164</v>
       </c>
@@ -7997,28 +11317,39 @@
       <c r="H5" s="30"/>
       <c r="I5" s="33"/>
     </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>218</v>
       </c>
       <c r="D6" s="9">
         <v>0.78590000000000004</v>
       </c>
-      <c r="F6" s="54" t="s">
+      <c r="F6" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="G6" s="32"/>
+      <c r="G6" s="32" t="s">
+        <v>130</v>
+      </c>
       <c r="H6" s="30">
         <v>0.8256</v>
       </c>
-      <c r="I6" s="55">
-        <v>34400000</v>
+      <c r="I6" s="54">
+        <v>34518948</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0.82069999999999999</v>
       </c>
       <c r="K6" s="20">
         <v>0.81759999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="9">
+        <v>0.8004</v>
+      </c>
+      <c r="M6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="F7" s="26"/>
       <c r="G7" s="29" t="s">
         <v>166</v>
@@ -8030,7 +11361,7 @@
         <v>36577188</v>
       </c>
     </row>
-    <row r="8" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F8" s="34"/>
       <c r="G8" s="35" t="s">
         <v>109</v>
@@ -8040,238 +11371,324 @@
       </c>
       <c r="I8" s="37"/>
     </row>
-    <row r="9" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="F10" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="38"/>
+    <row r="9" spans="3:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F10" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>130</v>
+      </c>
       <c r="H10" s="39">
-        <v>0.79300000000000004</v>
-      </c>
-      <c r="I10" s="53">
-        <v>2234548</v>
-      </c>
-    </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+        <v>0.80720000000000003</v>
+      </c>
+      <c r="I10" s="52">
+        <v>4394676</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
       <c r="F11" s="26"/>
       <c r="G11" s="29">
         <v>1</v>
       </c>
       <c r="H11" s="30">
+        <v>0.78220000000000001</v>
+      </c>
+      <c r="I11" s="33">
+        <v>4732468</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="34"/>
+      <c r="G12" s="35">
+        <v>2</v>
+      </c>
+      <c r="H12" s="36">
+        <v>0.75190000000000001</v>
+      </c>
+      <c r="I12" s="37">
+        <v>4732468</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F14" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="H14" s="43"/>
+      <c r="I14" s="25"/>
+    </row>
+    <row r="15" spans="3:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="34"/>
+      <c r="G15" s="57">
+        <v>2</v>
+      </c>
+      <c r="H15" s="58">
+        <v>0.8004</v>
+      </c>
+      <c r="I15" s="59">
+        <v>4505140</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F17" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="H17" s="39">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="I17" s="52">
+        <v>2234548</v>
+      </c>
+    </row>
+    <row r="18" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F18" s="26"/>
+      <c r="G18" s="29">
+        <v>1</v>
+      </c>
+      <c r="H18" s="30">
         <v>0.79349999999999998</v>
       </c>
-      <c r="I11" s="33"/>
-    </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="26"/>
-      <c r="G12" s="32">
+      <c r="I18" s="33"/>
+    </row>
+    <row r="19" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F19" s="26"/>
+      <c r="G19" s="29">
         <v>1.5</v>
       </c>
-      <c r="H12" s="40">
+      <c r="H19" s="30">
         <v>0.78539999999999999</v>
       </c>
-      <c r="I12" s="55">
+      <c r="I19" s="33">
         <v>2379316</v>
       </c>
-    </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="F13" s="26"/>
-      <c r="G13" s="32">
-        <v>1.5</v>
-      </c>
-      <c r="H13" s="40">
+      <c r="J19" s="30">
         <v>0.78600000000000003</v>
       </c>
-      <c r="I13" s="55">
-        <v>2379316</v>
-      </c>
-    </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="F14" s="26"/>
-      <c r="G14" s="32">
-        <v>1.5</v>
-      </c>
-      <c r="H14" s="40">
+      <c r="K19" s="30">
         <v>0.78520000000000001</v>
       </c>
-      <c r="I14" s="55"/>
-    </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="F15" s="26"/>
-      <c r="G15" s="29">
-        <v>2</v>
-      </c>
-      <c r="H15" s="30">
-        <v>0.78310000000000002</v>
-      </c>
-      <c r="I15" s="33"/>
-    </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="F16" s="26"/>
-      <c r="G16" s="29">
-        <v>3</v>
-      </c>
-      <c r="H16" s="30">
-        <v>0.7762</v>
-      </c>
-      <c r="I16" s="33"/>
-    </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F17" s="26"/>
-      <c r="G17" s="56">
-        <v>6</v>
-      </c>
-      <c r="H17" s="57">
-        <v>0.71220000000000006</v>
-      </c>
-      <c r="I17" s="33"/>
-    </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F18" s="26"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="33"/>
-    </row>
-    <row r="19" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F19" s="54" t="s">
-        <v>186</v>
-      </c>
-      <c r="G19" s="29"/>
-      <c r="H19" s="30">
-        <v>0.80920000000000003</v>
-      </c>
-      <c r="I19" s="33">
-        <v>4444084</v>
-      </c>
-    </row>
-    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F20" s="26"/>
       <c r="G20" s="29">
-        <v>1</v>
-      </c>
-      <c r="H20" s="30"/>
+        <v>2</v>
+      </c>
+      <c r="H20" s="30">
+        <v>0.78310000000000002</v>
+      </c>
       <c r="I20" s="33"/>
     </row>
-    <row r="21" spans="6:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F21" s="34"/>
-      <c r="G21" s="35">
-        <v>2</v>
-      </c>
-      <c r="H21" s="36">
-        <v>0.79620000000000002</v>
-      </c>
-      <c r="I21" s="37">
-        <v>4604980</v>
-      </c>
-    </row>
-    <row r="22" spans="6:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F23" s="52" t="s">
-        <v>98</v>
-      </c>
-      <c r="G23" s="38" t="s">
+    <row r="21" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F21" s="26"/>
+      <c r="G21" s="29">
+        <v>3</v>
+      </c>
+      <c r="H21" s="30">
+        <v>0.7762</v>
+      </c>
+      <c r="I21" s="33"/>
+    </row>
+    <row r="22" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F22" s="26"/>
+      <c r="G22" s="55">
+        <v>6</v>
+      </c>
+      <c r="H22" s="56">
+        <v>0.71220000000000006</v>
+      </c>
+      <c r="I22" s="33"/>
+    </row>
+    <row r="23" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F23" s="26"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="33"/>
+    </row>
+    <row r="24" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F24" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="G24" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="H23" s="39">
-        <v>0.80720000000000003</v>
-      </c>
-      <c r="I23" s="53">
-        <v>4394676</v>
-      </c>
-    </row>
-    <row r="24" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F24" s="26"/>
-      <c r="G24" s="29">
-        <v>1</v>
-      </c>
       <c r="H24" s="30">
-        <v>0.78220000000000001</v>
+        <v>0.80920000000000003</v>
       </c>
       <c r="I24" s="33">
-        <v>4732468</v>
-      </c>
-    </row>
-    <row r="25" spans="6:10" x14ac:dyDescent="0.25">
+        <v>4444084</v>
+      </c>
+    </row>
+    <row r="25" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F25" s="26"/>
       <c r="G25" s="29">
+        <v>1</v>
+      </c>
+      <c r="H25" s="30"/>
+      <c r="I25" s="33"/>
+    </row>
+    <row r="26" spans="6:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F26" s="34"/>
+      <c r="G26" s="35">
         <v>2</v>
       </c>
-      <c r="H25" s="30">
-        <v>0.75190000000000001</v>
-      </c>
-      <c r="I25" s="33">
-        <v>4732468</v>
-      </c>
-    </row>
-    <row r="26" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F26" s="26"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="33"/>
-    </row>
-    <row r="27" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F27" s="26"/>
-      <c r="G27" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="H27" s="30">
-        <v>0.80769999999999997</v>
-      </c>
-      <c r="I27" s="33">
-        <v>4539444</v>
-      </c>
-      <c r="J27" s="9">
-        <v>0.80779999999999996</v>
-      </c>
-    </row>
-    <row r="28" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F28" s="26"/>
-      <c r="G28" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="H28" s="30">
-        <v>0.80400000000000005</v>
-      </c>
-      <c r="I28" s="33"/>
-      <c r="J28" s="9">
-        <v>0.80359999999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F29" s="26"/>
-      <c r="G29" s="29" t="s">
-        <v>167</v>
+      <c r="H26" s="36">
+        <v>0.79620000000000002</v>
+      </c>
+      <c r="I26" s="37">
+        <v>4604980</v>
+      </c>
+    </row>
+    <row r="27" spans="6:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+    </row>
+    <row r="28" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F28" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="G28" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="H28" s="43">
+        <v>0.8014</v>
+      </c>
+      <c r="I28" s="25">
+        <v>2923444</v>
+      </c>
+      <c r="J28" t="s">
+        <v>211</v>
+      </c>
+      <c r="M28" s="29"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+    </row>
+    <row r="29" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F29" s="64" t="s">
+        <v>196</v>
+      </c>
+      <c r="G29" s="29">
+        <v>1</v>
       </c>
       <c r="H29" s="30">
-        <v>0.78410000000000002</v>
+        <v>0.79079999999999995</v>
       </c>
       <c r="I29" s="33"/>
-    </row>
-    <row r="30" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>216</v>
+      </c>
+      <c r="O29" t="s">
+        <v>134</v>
+      </c>
+      <c r="P29" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>155</v>
+      </c>
+      <c r="R29" t="s">
+        <v>186</v>
+      </c>
+      <c r="S29" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F30" s="26"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="33"/>
-    </row>
-    <row r="31" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="G30" s="29">
+        <v>2</v>
+      </c>
+      <c r="H30" s="30">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="I30" s="33">
+        <v>3062836</v>
+      </c>
+      <c r="J30" t="s">
+        <v>212</v>
+      </c>
+      <c r="N30" t="s">
+        <v>130</v>
+      </c>
+      <c r="O30" s="30">
+        <v>0.79049999999999998</v>
+      </c>
+      <c r="P30" s="30">
+        <v>0.8256</v>
+      </c>
+      <c r="Q30" s="30">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="R30" s="30">
+        <v>0.80920000000000003</v>
+      </c>
+      <c r="S30" s="30">
+        <v>0.80720000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F31" s="26"/>
       <c r="G31" s="29"/>
       <c r="H31" s="30"/>
       <c r="I31" s="33"/>
-    </row>
-    <row r="32" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F32" s="54" t="s">
-        <v>136</v>
+      <c r="M31" s="29"/>
+      <c r="N31" t="s">
+        <v>166</v>
+      </c>
+      <c r="O31" s="30">
+        <v>0.7843</v>
+      </c>
+      <c r="P31" s="30">
+        <v>0.82379999999999998</v>
+      </c>
+      <c r="Q31" s="30">
+        <v>0.79349999999999998</v>
+      </c>
+      <c r="R31" s="30"/>
+      <c r="S31" s="30">
+        <v>0.78220000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F32" s="53" t="s">
+        <v>98</v>
       </c>
       <c r="G32" s="32" t="s">
         <v>130</v>
       </c>
       <c r="H32" s="40">
-        <v>0.81110000000000004</v>
-      </c>
-      <c r="I32" s="55">
-        <v>8808372</v>
+        <v>0.80720000000000003</v>
+      </c>
+      <c r="I32" s="54">
+        <v>4394676</v>
+      </c>
+      <c r="M32" s="29"/>
+      <c r="N32" t="s">
+        <v>109</v>
+      </c>
+      <c r="O32" s="30">
+        <v>0.75660000000000005</v>
+      </c>
+      <c r="P32" s="30">
+        <v>0.79959999999999998</v>
+      </c>
+      <c r="Q32" s="30">
+        <v>0.78310000000000002</v>
+      </c>
+      <c r="R32" s="30">
+        <v>0.79620000000000002</v>
+      </c>
+      <c r="S32" s="30">
+        <v>0.75190000000000001</v>
       </c>
     </row>
     <row r="33" spans="6:11" x14ac:dyDescent="0.25">
@@ -8280,47 +11697,511 @@
         <v>166</v>
       </c>
       <c r="H33" s="30">
+        <v>0.80769999999999997</v>
+      </c>
+      <c r="I33" s="33">
+        <v>4539444</v>
+      </c>
+      <c r="J33" s="9">
+        <v>0.80779999999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F34" s="26"/>
+      <c r="G34" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="H34" s="30">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="I34" s="33"/>
+      <c r="J34" s="9">
+        <v>0.80359999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F35" s="26"/>
+      <c r="G35" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="H35" s="30">
+        <v>0.78410000000000002</v>
+      </c>
+      <c r="I35" s="33"/>
+    </row>
+    <row r="36" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F36" s="26"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="33"/>
+    </row>
+    <row r="37" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F37" s="53" t="s">
+        <v>194</v>
+      </c>
+      <c r="G37" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="H37" s="30">
+        <v>0.80779999999999996</v>
+      </c>
+      <c r="I37" s="33">
+        <v>5865908</v>
+      </c>
+      <c r="J37" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="38" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F38" s="26"/>
+      <c r="G38" s="29">
+        <v>2</v>
+      </c>
+      <c r="H38" s="30">
+        <v>0.80779999999999996</v>
+      </c>
+      <c r="I38" s="33">
+        <v>6016052</v>
+      </c>
+      <c r="J38" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="39" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F39" s="26"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="33"/>
+    </row>
+    <row r="40" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F40" s="53" t="s">
+        <v>195</v>
+      </c>
+      <c r="G40" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="H40" s="30">
+        <v>0.80969999999999998</v>
+      </c>
+      <c r="I40" s="33">
+        <v>7337140</v>
+      </c>
+      <c r="J40" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="41" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F41" s="26"/>
+      <c r="G41" s="29">
+        <v>1</v>
+      </c>
+      <c r="H41" s="30">
+        <v>0.81189999999999996</v>
+      </c>
+      <c r="I41" s="33">
+        <v>7492660</v>
+      </c>
+      <c r="J41" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="42" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F42" s="26"/>
+      <c r="G42" s="29">
+        <v>2</v>
+      </c>
+      <c r="H42" s="30">
+        <v>0.81110000000000004</v>
+      </c>
+      <c r="I42" s="33"/>
+      <c r="J42" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="43" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F43" s="26"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="33"/>
+    </row>
+    <row r="44" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F44" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="G44" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="H44" s="40">
+        <v>0.81110000000000004</v>
+      </c>
+      <c r="I44" s="54">
+        <v>8808372</v>
+      </c>
+    </row>
+    <row r="45" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F45" s="26"/>
+      <c r="G45" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="H45" s="30">
         <v>0.80579999999999996</v>
       </c>
-      <c r="I33" s="33">
+      <c r="I45" s="33">
         <v>8969268</v>
       </c>
-      <c r="K33" s="20">
+      <c r="K45" s="20">
         <v>0.79620000000000002</v>
       </c>
     </row>
-    <row r="34" spans="6:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F34" s="34"/>
-      <c r="G34" s="35" t="s">
+    <row r="46" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F46" s="26"/>
+      <c r="G46" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="H34" s="36">
+      <c r="H46" s="30">
         <v>0.81940000000000002</v>
       </c>
-      <c r="I34" s="37">
+      <c r="I46" s="33">
         <v>8969268</v>
       </c>
-      <c r="K34" s="20">
+      <c r="K46" s="20">
         <v>0.80230000000000001</v>
       </c>
     </row>
-    <row r="35" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="I35">
+    <row r="47" spans="6:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F47" s="34"/>
+      <c r="G47" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="H47" s="61">
+        <v>0.81289999999999996</v>
+      </c>
+      <c r="I47" s="62">
         <v>11033652</v>
+      </c>
+    </row>
+    <row r="48" spans="6:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F49" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="G49" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="H49" s="43">
+        <v>0.8135</v>
+      </c>
+      <c r="I49" s="25">
+        <v>5231284</v>
+      </c>
+      <c r="J49" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="50" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F50" s="26"/>
+      <c r="G50" s="29">
+        <v>2</v>
+      </c>
+      <c r="H50" s="30">
+        <v>0.81559999999999999</v>
+      </c>
+      <c r="I50" s="33">
+        <v>5376052</v>
+      </c>
+      <c r="J50" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="51" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F51" s="26"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="33"/>
+      <c r="J51" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="52" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F52" s="53" t="s">
+        <v>202</v>
+      </c>
+      <c r="G52" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="H52" s="30">
+        <v>0.81789999999999996</v>
+      </c>
+      <c r="I52" s="33">
+        <v>10388148</v>
+      </c>
+    </row>
+    <row r="53" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F53" s="26"/>
+      <c r="G53" s="29">
+        <v>2</v>
+      </c>
+      <c r="H53" s="30">
+        <v>0.81730000000000003</v>
+      </c>
+      <c r="I53" s="33">
+        <v>10532916</v>
+      </c>
+    </row>
+    <row r="54" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F54" s="26"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="33"/>
+    </row>
+    <row r="55" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F55" s="53" t="s">
+        <v>201</v>
+      </c>
+      <c r="G55" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="H55" s="30">
+        <v>0.81369999999999998</v>
+      </c>
+      <c r="I55" s="33">
+        <v>10569652</v>
+      </c>
+      <c r="O55" s="32">
+        <v>3</v>
+      </c>
+      <c r="P55" s="32">
+        <v>4</v>
+      </c>
+      <c r="Q55" s="32">
+        <v>6</v>
+      </c>
+      <c r="R55" s="32">
+        <v>8</v>
+      </c>
+      <c r="S55" s="32">
+        <v>10</v>
+      </c>
+      <c r="T55" s="32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="6:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F56" s="34"/>
+      <c r="G56" s="35">
+        <v>2</v>
+      </c>
+      <c r="H56" s="36">
+        <v>0.81359999999999999</v>
+      </c>
+      <c r="I56" s="37">
+        <v>10730548</v>
+      </c>
+      <c r="K56" t="s">
+        <v>191</v>
+      </c>
+      <c r="N56" t="s">
+        <v>130</v>
+      </c>
+      <c r="O56" s="30">
+        <v>0.79049999999999998</v>
+      </c>
+      <c r="P56" s="9">
+        <v>0.8014</v>
+      </c>
+      <c r="Q56" s="40">
+        <v>0.80720000000000003</v>
+      </c>
+      <c r="R56" s="9">
+        <v>0.80779999999999996</v>
+      </c>
+      <c r="S56" s="9">
+        <v>0.80969999999999998</v>
+      </c>
+      <c r="T56" s="40">
+        <v>0.81110000000000004</v>
+      </c>
+    </row>
+    <row r="57" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="N57" t="s">
+        <v>166</v>
+      </c>
+      <c r="O57" s="30">
+        <v>0.7843</v>
+      </c>
+      <c r="P57" s="9">
+        <v>0.79079999999999995</v>
+      </c>
+      <c r="Q57" s="30">
+        <v>0.80769999999999997</v>
+      </c>
+      <c r="S57" s="9">
+        <v>0.81189999999999996</v>
+      </c>
+      <c r="T57" s="30">
+        <v>0.80579999999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="N58" t="s">
+        <v>109</v>
+      </c>
+      <c r="O58" s="30">
+        <v>0.75660000000000005</v>
+      </c>
+      <c r="P58" s="9">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="Q58" s="30">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="R58" s="9">
+        <v>0.80779999999999996</v>
+      </c>
+      <c r="S58" s="9">
+        <v>0.81110000000000004</v>
+      </c>
+      <c r="T58" s="30">
+        <v>0.81940000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="6:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F60" s="53" t="s">
+        <v>192</v>
+      </c>
+      <c r="G60" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="H60" s="43">
+        <v>0.8085</v>
+      </c>
+      <c r="I60">
+        <v>2652852</v>
+      </c>
+      <c r="J60" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="61" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F61" s="26"/>
+      <c r="G61" s="29">
+        <v>2</v>
+      </c>
+      <c r="H61" s="30">
+        <v>0.80469999999999997</v>
+      </c>
+      <c r="I61" s="33">
+        <v>2794620</v>
+      </c>
+      <c r="J61" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="63" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F63" s="53" t="s">
+        <v>198</v>
+      </c>
+      <c r="G63" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="H63" s="9">
+        <v>0.8054</v>
+      </c>
+      <c r="I63">
+        <v>5324724</v>
+      </c>
+      <c r="J63" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="64" spans="6:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="65" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F65" s="53" t="s">
+        <v>199</v>
+      </c>
+      <c r="G65" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="H65" s="9">
+        <v>0.80959999999999999</v>
+      </c>
+      <c r="I65">
+        <v>9308580</v>
+      </c>
+      <c r="J65" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="72" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>203</v>
+      </c>
+      <c r="F72" s="53" t="s">
+        <v>202</v>
+      </c>
+      <c r="G72" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="H72" s="30">
+        <v>0.9657</v>
+      </c>
+      <c r="I72" s="33">
+        <v>10365018</v>
+      </c>
+      <c r="J72" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="73" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F73" s="26"/>
+      <c r="G73" s="29">
+        <v>2</v>
+      </c>
+      <c r="H73" s="30">
+        <v>0.96189999999999998</v>
+      </c>
+      <c r="I73" s="33">
+        <v>10509786</v>
+      </c>
+      <c r="J73" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="78" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="J78" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="79" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="J79" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="80" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="J80" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="81" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J81" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:I20"/>
+  <dimension ref="C2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D6"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -8328,7 +12209,7 @@
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C2">
         <v>29</v>
       </c>
@@ -8348,7 +12229,7 @@
         <v>2234548</v>
       </c>
     </row>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>56</v>
       </c>
@@ -8366,7 +12247,7 @@
         <v>2379316</v>
       </c>
     </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>110</v>
       </c>
@@ -8381,7 +12262,7 @@
         <v>0.78310000000000002</v>
       </c>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>164</v>
       </c>
@@ -8401,7 +12282,7 @@
         <v>2379316</v>
       </c>
     </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>218</v>
       </c>
@@ -8421,7 +12302,7 @@
         <v>17849908</v>
       </c>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="F7" s="19" t="s">
         <v>142</v>
       </c>
@@ -8435,7 +12316,7 @@
         <v>75554356</v>
       </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>143</v>
       </c>
@@ -8449,7 +12330,7 @@
         <v>67375156</v>
       </c>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
       <c r="F9" s="19" t="s">
         <v>144</v>
       </c>
@@ -8463,7 +12344,7 @@
         <v>9611956</v>
       </c>
     </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>150</v>
       </c>
@@ -8477,7 +12358,7 @@
         <v>2379316</v>
       </c>
     </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
       <c r="G12">
         <v>2</v>
       </c>
@@ -8485,7 +12366,7 @@
         <v>0.77599999999999991</v>
       </c>
     </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
       <c r="F13" s="19" t="s">
         <v>149</v>
       </c>
@@ -8496,7 +12377,7 @@
         <v>0.77049999999999996</v>
       </c>
     </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
       <c r="F14" s="19" t="s">
         <v>152</v>
       </c>
@@ -8507,7 +12388,7 @@
         <v>0.77070000000000005</v>
       </c>
     </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
       <c r="F15" s="14" t="s">
         <v>148</v>
       </c>
@@ -8517,8 +12398,11 @@
       <c r="H15" s="15">
         <v>0.78939999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
       <c r="F16" s="14" t="s">
         <v>148</v>
       </c>
